--- a/docss/trend/denmark/E_neuron.xlsx
+++ b/docss/trend/denmark/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\denmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\denmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,7 +1577,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,182 +1600,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.9542750734835863</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.0347386077046394</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.8682588767260313</v>
+      <c r="B2">
+        <v>1.954</v>
+      </c>
+      <c r="C2">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.8933131173253059</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.9611299373209476</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.8174469880759716</v>
+      <c r="B3">
+        <v>1.893</v>
+      </c>
+      <c r="C3">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.8169999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.6916012931615114</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.4322997070848942</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.9237812403589487</v>
+      <c r="B4">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.9239999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>1.5188721884042025</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.7594426460564137</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.3225277457386255</v>
+      <c r="B5">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="D5">
+        <v>1.323</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.5831682775169611</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.8747631870210171</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.3629390746355057</v>
+      <c r="B6">
+        <v>1.583</v>
+      </c>
+      <c r="C6">
+        <v>1.875</v>
+      </c>
+      <c r="D6">
+        <v>1.363</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.9058345071971416</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.143851064145565</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.7029649093747139</v>
+      <c r="B7">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.7030000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>2.0860981326550245</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.2897210046648979</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.9210891798138618</v>
+      <c r="B8">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.29</v>
+      </c>
+      <c r="D8">
+        <v>1.921</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>1.60554538667202</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.5934553444385529</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.6609512586146593</v>
+      <c r="B9">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.593</v>
+      </c>
+      <c r="D9">
+        <v>1.661</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>1.5998081583529711</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.2079417258501053</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.0493655800819397</v>
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="D10">
+        <v>1.0489999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>1.7701942473649979</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.1474965624511242</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.4461957216262817</v>
+      <c r="B11">
+        <v>1.77</v>
+      </c>
+      <c r="C11">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="D11">
+        <v>1.446</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>1.8068977557122707</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.1361839398741722</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.4876906722784042</v>
+      <c r="B12">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="C12">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>1.7915482558310032</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1.8722820170223713</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.7023223638534546</v>
+      <c r="B13">
+        <v>1.792</v>
+      </c>
+      <c r="C13">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.702</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>1.7294634617865086</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.7406796663999557</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.734626367688179</v>
+      <c r="B14">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.7350000000000001</v>
       </c>
     </row>
   </sheetData>
